--- a/project_orders.xlsx
+++ b/project_orders.xlsx
@@ -491,7 +491,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="1.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="35.29071428571429" customWidth="1" bestFit="1"/>
